--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -55,93 +55,90 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>weird</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fucked</t>
+    <t>serious</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -157,70 +154,73 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
     <t>essential</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>whole</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>digital</t>
+    <t>well</t>
   </si>
   <si>
     <t>highly</t>
@@ -229,46 +229,46 @@
     <t>right</t>
   </si>
   <si>
-    <t>well</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>watching</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>watch</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>documentary</t>
+    <t>watched</t>
   </si>
   <si>
     <t>’</t>
@@ -632,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -872,16 +872,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,16 +922,16 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9393939393939394</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>0.7192982456140351</v>
@@ -1101,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.9</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.6923076923076923</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>9</v>
-      </c>
-      <c r="M12">
-        <v>9</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.6111111111111112</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.6</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,16 +1322,16 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.5925925925925926</v>
+        <v>0.64</v>
       </c>
       <c r="L15">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7</v>
+        <v>0.725</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.5789473684210527</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1401,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1451,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1501,13 +1501,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6842105263157895</v>
+        <v>0.6875</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,49 +1551,49 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.675</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20">
+        <v>0.4375</v>
+      </c>
+      <c r="L20">
+        <v>21</v>
+      </c>
+      <c r="M20">
+        <v>21</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>27</v>
-      </c>
-      <c r="D20">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>13</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="L20">
-        <v>20</v>
-      </c>
-      <c r="M20">
-        <v>20</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1601,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.3888888888888889</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1651,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.6014492753623188</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.3684210526315789</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1701,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6521739130434783</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.3636363636363636</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1751,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.625</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1769,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.2513661202185792</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L24">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="M24">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>822</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,13 +1801,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5833333333333334</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.2307692307692308</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L25">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1851,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.574468085106383</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.2203389830508475</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,13 +1901,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.572463768115942</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C27">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1919,19 +1919,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.2142857142857143</v>
+        <v>0.2449908925318761</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>829</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,13 +1951,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5384615384615384</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1969,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.180327868852459</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,13 +2001,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5142857142857142</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,19 +2019,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.1666666666666667</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2051,13 +2051,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2069,19 +2069,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.1521739130434783</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,38 +2101,38 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4583333333333333</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>18</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31">
+        <v>0.1549295774647887</v>
+      </c>
+      <c r="L31">
         <v>11</v>
       </c>
-      <c r="D31">
+      <c r="M31">
         <v>11</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>13</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31">
-        <v>0.1473684210526316</v>
-      </c>
-      <c r="L31">
-        <v>14</v>
-      </c>
-      <c r="M31">
-        <v>14</v>
-      </c>
       <c r="N31">
         <v>1</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2151,13 +2151,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4102564102564102</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2169,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.1411764705882353</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L32">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2201,13 +2201,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3529411764705883</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K33">
-        <v>0.1267605633802817</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="L33">
         <v>9</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2251,38 +2251,38 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>14</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34">
+        <v>0.1230769230769231</v>
+      </c>
+      <c r="L34">
         <v>8</v>
       </c>
-      <c r="D34">
+      <c r="M34">
         <v>8</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>20</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K34">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L34">
-        <v>6</v>
-      </c>
-      <c r="M34">
-        <v>6</v>
-      </c>
       <c r="N34">
         <v>1</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2301,13 +2301,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2319,19 +2319,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K35">
-        <v>0.1095890410958904</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2351,13 +2351,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2857142857142857</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>0.1076923076923077</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2401,87 +2401,63 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1666666666666667</v>
+        <v>0.04713804713804714</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K37">
-        <v>0.04105571847507331</v>
-      </c>
-      <c r="L37">
-        <v>14</v>
-      </c>
-      <c r="M37">
-        <v>14</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.05369127516778523</v>
-      </c>
-      <c r="C38">
-        <v>16</v>
-      </c>
-      <c r="D38">
-        <v>17</v>
-      </c>
-      <c r="E38">
-        <v>0.06</v>
-      </c>
-      <c r="F38">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>282</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="K38">
-        <v>0.04074074074074074</v>
+        <v>0.03519061583577713</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2493,12 +2469,12 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>518</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K39">
         <v>0.03313253012048193</v>
@@ -2524,16 +2500,16 @@
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>0.03246753246753246</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2545,21 +2521,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>596</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K41">
-        <v>0.0293778801843318</v>
+        <v>0.02826855123674912</v>
       </c>
       <c r="L41">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="M41">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2571,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>1685</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.02857142857142857</v>
+        <v>0.02534562211981567</v>
       </c>
       <c r="L42">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2597,21 +2573,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>306</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.02826855123674912</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2623,33 +2599,59 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>275</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K44">
-        <v>0.02176696542893726</v>
-      </c>
-      <c r="L44">
-        <v>17</v>
-      </c>
-      <c r="M44">
-        <v>17</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>764</v>
+      <c r="K45">
+        <v>0.0204865556978233</v>
+      </c>
+      <c r="L45">
+        <v>16</v>
+      </c>
+      <c r="M45">
+        <v>16</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>765</v>
       </c>
     </row>
   </sheetData>
